--- a/results/Test.xlsx
+++ b/results/Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="316">
   <si>
     <t>Unique Code</t>
   </si>
@@ -118,9 +118,6 @@
     <t>1nCWte</t>
   </si>
   <si>
-    <t>1nTGsa</t>
-  </si>
-  <si>
     <t>1nUSüa</t>
   </si>
   <si>
@@ -283,15 +280,15 @@
     <t>9 18 22 23</t>
   </si>
   <si>
+    <t>10 18 23</t>
+  </si>
+  <si>
     <t>10 14 20</t>
   </si>
   <si>
     <t>10 14</t>
   </si>
   <si>
-    <t>10 18 23</t>
-  </si>
-  <si>
     <t>18 23</t>
   </si>
   <si>
@@ -361,15 +358,15 @@
     <t>00:12:29</t>
   </si>
   <si>
+    <t>00:21:29</t>
+  </si>
+  <si>
     <t>00:17:04</t>
   </si>
   <si>
     <t>00:15:43</t>
   </si>
   <si>
-    <t>00:21:29</t>
-  </si>
-  <si>
     <t>00:14:28</t>
   </si>
   <si>
@@ -544,10 +541,10 @@
     <t>00:12:58</t>
   </si>
   <si>
+    <t>00:12:08</t>
+  </si>
+  <si>
     <t>00:08:40</t>
-  </si>
-  <si>
-    <t>00:12:08</t>
   </si>
   <si>
     <t>00:09:58</t>
@@ -1322,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1348,7 @@
     <col min="21" max="21" width="28.7109375" customWidth="1"/>
     <col min="22" max="22" width="32.7109375" customWidth="1"/>
     <col min="23" max="23" width="29.7109375" customWidth="1"/>
-    <col min="24" max="24" width="4.7109375" customWidth="1"/>
+    <col min="24" max="24" width="2.7109375" customWidth="1"/>
     <col min="25" max="25" width="9.7109375" customWidth="1"/>
     <col min="26" max="26" width="6.7109375" customWidth="1"/>
     <col min="27" max="27" width="12.7109375" customWidth="1"/>
@@ -1455,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>22</v>
@@ -1467,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2">
         <v>24</v>
@@ -1479,7 +1476,7 @@
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M2">
         <v>25</v>
@@ -1488,10 +1485,10 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q2">
         <v>25</v>
@@ -1500,19 +1497,19 @@
         <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X2">
         <v>54</v>
@@ -1541,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>19</v>
@@ -1550,10 +1547,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3">
         <v>22</v>
@@ -1562,10 +1559,10 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M3">
         <v>23</v>
@@ -1574,10 +1571,10 @@
         <v>25</v>
       </c>
       <c r="O3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q3">
         <v>20</v>
@@ -1586,19 +1583,19 @@
         <v>25</v>
       </c>
       <c r="S3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X3">
         <v>66</v>
@@ -1627,7 +1624,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>23</v>
@@ -1636,10 +1633,10 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4">
         <v>24</v>
@@ -1651,7 +1648,7 @@
         <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4">
         <v>24</v>
@@ -1663,7 +1660,7 @@
         <v>-1</v>
       </c>
       <c r="P4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q4">
         <v>25</v>
@@ -1672,10 +1669,10 @@
         <v>25</v>
       </c>
       <c r="S4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -1684,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="W4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X4">
         <v>48</v>
@@ -1713,55 +1710,55 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
+        <v>114</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U5">
         <v>9</v>
@@ -1770,7 +1767,7 @@
         <v>10</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X5">
         <v>59</v>
@@ -1799,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>20</v>
@@ -1820,43 +1817,43 @@
         <v>25</v>
       </c>
       <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q6">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" t="s">
+        <v>238</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6" t="s">
         <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6">
-        <v>25</v>
-      </c>
-      <c r="N6">
-        <v>25</v>
-      </c>
-      <c r="O6" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q6">
-        <v>25</v>
-      </c>
-      <c r="R6">
-        <v>25</v>
-      </c>
-      <c r="S6" t="s">
-        <v>86</v>
-      </c>
-      <c r="T6" t="s">
-        <v>239</v>
-      </c>
-      <c r="U6">
-        <v>10</v>
-      </c>
-      <c r="V6">
-        <v>10</v>
-      </c>
-      <c r="W6" t="s">
-        <v>87</v>
       </c>
       <c r="X6">
         <v>62</v>
@@ -1885,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <v>21</v>
@@ -1918,10 +1915,10 @@
         <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q7">
         <v>25</v>
@@ -1930,10 +1927,10 @@
         <v>25</v>
       </c>
       <c r="S7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U7">
         <v>6</v>
@@ -1942,7 +1939,7 @@
         <v>10</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X7">
         <v>59</v>
@@ -1964,17 +1961,17 @@
       <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>86</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>23</v>
@@ -1986,64 +1983,64 @@
         <v>117</v>
       </c>
       <c r="I8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
         <v>177</v>
       </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" t="s">
-        <v>86</v>
+      <c r="M8">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>86</v>
-      </c>
-      <c r="R8" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" t="s">
-        <v>86</v>
+        <v>229</v>
+      </c>
+      <c r="Q8">
+        <v>24</v>
+      </c>
+      <c r="R8">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
       </c>
       <c r="T8" t="s">
-        <v>86</v>
-      </c>
-      <c r="U8" t="s">
-        <v>86</v>
-      </c>
-      <c r="V8" t="s">
-        <v>86</v>
+        <v>277</v>
+      </c>
+      <c r="U8">
+        <v>8</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
       </c>
       <c r="W8" t="s">
         <v>86</v>
       </c>
-      <c r="X8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>86</v>
+      <c r="X8">
+        <v>58</v>
+      </c>
+      <c r="Y8">
+        <v>109</v>
+      </c>
+      <c r="Z8">
+        <v>51</v>
+      </c>
+      <c r="AA8">
+        <v>115</v>
+      </c>
+      <c r="AB8">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -2051,16 +2048,16 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>23</v>
@@ -2072,13 +2069,13 @@
         <v>118</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="L9" t="s">
         <v>178</v>
@@ -2090,63 +2087,63 @@
         <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
         <v>230</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R9">
         <v>25</v>
       </c>
-      <c r="S9">
-        <v>9</v>
+      <c r="S9" t="s">
+        <v>263</v>
       </c>
       <c r="T9" t="s">
         <v>278</v>
       </c>
-      <c r="U9">
-        <v>8</v>
-      </c>
-      <c r="V9">
-        <v>10</v>
+      <c r="U9" t="s">
+        <v>85</v>
+      </c>
+      <c r="V9" t="s">
+        <v>85</v>
       </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Y9">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="Z9">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="AA9">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AB9">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>23</v>
@@ -2158,81 +2155,81 @@
         <v>119</v>
       </c>
       <c r="I10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J10">
         <v>25</v>
       </c>
-      <c r="K10" t="s">
-        <v>164</v>
+      <c r="K10">
+        <v>20</v>
       </c>
       <c r="L10" t="s">
         <v>179</v>
       </c>
       <c r="M10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>25</v>
       </c>
-      <c r="O10" t="s">
-        <v>86</v>
+      <c r="O10">
+        <v>-1</v>
       </c>
       <c r="P10" t="s">
         <v>231</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R10">
         <v>25</v>
       </c>
-      <c r="S10" t="s">
-        <v>264</v>
+      <c r="S10">
+        <v>9</v>
       </c>
       <c r="T10" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="U10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X10">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="Y10">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Z10">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA10">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AB10">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>23</v>
@@ -2244,13 +2241,13 @@
         <v>120</v>
       </c>
       <c r="I11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J11">
         <v>25</v>
       </c>
-      <c r="K11">
-        <v>20</v>
+      <c r="K11" t="s">
+        <v>164</v>
       </c>
       <c r="L11" t="s">
         <v>180</v>
@@ -2262,129 +2259,129 @@
         <v>25</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
         <v>232</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R11">
         <v>25</v>
       </c>
-      <c r="S11">
-        <v>9</v>
+      <c r="S11" t="s">
+        <v>85</v>
       </c>
       <c r="T11" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="U11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X11">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="Y11">
-        <v>116</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AA11">
-        <v>138</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>64</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12">
-        <v>21</v>
-      </c>
-      <c r="F12">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12">
-        <v>22</v>
-      </c>
-      <c r="J12">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>181</v>
-      </c>
-      <c r="M12">
-        <v>24</v>
-      </c>
-      <c r="N12">
-        <v>25</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q12">
-        <v>25</v>
-      </c>
-      <c r="R12">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" t="s">
+        <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="U12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X12">
-        <v>57</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>138</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -2394,86 +2391,86 @@
       <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
+      <c r="E13">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" t="s">
-        <v>86</v>
+        <v>121</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" t="s">
-        <v>86</v>
+        <v>181</v>
+      </c>
+      <c r="M13">
+        <v>24</v>
+      </c>
+      <c r="N13">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
       </c>
       <c r="P13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>86</v>
-      </c>
-      <c r="R13" t="s">
-        <v>86</v>
+        <v>233</v>
+      </c>
+      <c r="Q13">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>25</v>
       </c>
       <c r="S13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T13" t="s">
-        <v>86</v>
-      </c>
-      <c r="U13" t="s">
-        <v>86</v>
-      </c>
-      <c r="V13" t="s">
-        <v>86</v>
+        <v>280</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
       </c>
       <c r="W13" t="s">
         <v>86</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>57</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>128</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>84</v>
       </c>
       <c r="AA13">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2481,85 +2478,85 @@
         <v>40</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
         <v>122</v>
       </c>
       <c r="I14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J14">
         <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
         <v>182</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>25</v>
       </c>
-      <c r="O14">
-        <v>-1</v>
+      <c r="O14" t="s">
+        <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R14">
         <v>25</v>
       </c>
       <c r="S14" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="T14" t="s">
         <v>281</v>
       </c>
-      <c r="U14">
-        <v>7</v>
-      </c>
-      <c r="V14">
-        <v>10</v>
+      <c r="U14" t="s">
+        <v>85</v>
+      </c>
+      <c r="V14" t="s">
+        <v>85</v>
       </c>
       <c r="W14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X14">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Y14">
-        <v>128</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="AA14">
-        <v>141</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>71</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2567,7 +2564,7 @@
         <v>41</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -2576,25 +2573,25 @@
         <v>86</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
-        <v>96</v>
+      <c r="G15">
+        <v>10</v>
       </c>
       <c r="H15" t="s">
         <v>123</v>
       </c>
       <c r="I15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15">
         <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
         <v>183</v>
@@ -2606,46 +2603,46 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R15">
         <v>25</v>
       </c>
       <c r="S15" t="s">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="T15" t="s">
-        <v>282</v>
-      </c>
-      <c r="U15" t="s">
-        <v>86</v>
-      </c>
-      <c r="V15" t="s">
-        <v>86</v>
+        <v>259</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
       </c>
       <c r="W15" t="s">
         <v>86</v>
       </c>
       <c r="X15">
+        <v>38</v>
+      </c>
+      <c r="Y15">
+        <v>108</v>
+      </c>
+      <c r="Z15">
+        <v>85</v>
+      </c>
+      <c r="AA15">
+        <v>103</v>
+      </c>
+      <c r="AB15">
         <v>52</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>37</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2659,16 +2656,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>23</v>
       </c>
-      <c r="G16">
-        <v>10</v>
+      <c r="G16" t="s">
+        <v>85</v>
       </c>
       <c r="H16" t="s">
         <v>124</v>
@@ -2680,7 +2677,7 @@
         <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
         <v>184</v>
@@ -2692,60 +2689,60 @@
         <v>25</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
         <v>235</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R16">
         <v>25</v>
       </c>
-      <c r="S16" t="s">
-        <v>86</v>
+      <c r="S16">
+        <v>9</v>
       </c>
       <c r="T16" t="s">
-        <v>260</v>
-      </c>
-      <c r="U16">
-        <v>6</v>
-      </c>
-      <c r="V16">
-        <v>10</v>
+        <v>282</v>
+      </c>
+      <c r="U16" t="s">
+        <v>85</v>
+      </c>
+      <c r="V16" t="s">
+        <v>85</v>
       </c>
       <c r="W16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X16">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="Y16">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA16">
-        <v>103</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>23</v>
@@ -2754,64 +2751,64 @@
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
         <v>125</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>25</v>
       </c>
-      <c r="K17" t="s">
-        <v>86</v>
+      <c r="K17">
+        <v>20</v>
       </c>
       <c r="L17" t="s">
         <v>185</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P17" t="s">
         <v>236</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R17">
         <v>25</v>
       </c>
-      <c r="S17">
-        <v>9</v>
+      <c r="S17" t="s">
+        <v>265</v>
       </c>
       <c r="T17" t="s">
         <v>283</v>
       </c>
       <c r="U17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X17">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AA17">
         <v>-1</v>
@@ -2824,71 +2821,71 @@
       <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18">
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s">
         <v>126</v>
       </c>
       <c r="I18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <v>25</v>
       </c>
-      <c r="K18">
-        <v>20</v>
+      <c r="K18" t="s">
+        <v>85</v>
       </c>
       <c r="L18" t="s">
         <v>186</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>25</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P18" t="s">
         <v>237</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R18">
         <v>25</v>
       </c>
-      <c r="S18" t="s">
-        <v>266</v>
+      <c r="S18">
+        <v>9</v>
       </c>
       <c r="T18" t="s">
         <v>284</v>
       </c>
       <c r="U18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X18">
         <v>53</v>
@@ -2897,10 +2894,10 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>144</v>
       </c>
       <c r="AB18">
         <v>-1</v>
@@ -2911,13 +2908,13 @@
         <v>45</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>21</v>
@@ -2926,70 +2923,70 @@
         <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
         <v>127</v>
       </c>
       <c r="I19">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J19">
         <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
         <v>187</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>25</v>
       </c>
-      <c r="O19" t="s">
-        <v>86</v>
+      <c r="O19">
+        <v>-1</v>
       </c>
       <c r="P19" t="s">
         <v>238</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R19">
         <v>25</v>
       </c>
-      <c r="S19">
-        <v>9</v>
+      <c r="S19" t="s">
+        <v>266</v>
       </c>
       <c r="T19" t="s">
         <v>285</v>
       </c>
       <c r="U19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X19">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>100</v>
       </c>
       <c r="Z19">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AA19">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2997,7 +2994,7 @@
         <v>46</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -3006,76 +3003,76 @@
         <v>86</v>
       </c>
       <c r="E20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>23</v>
       </c>
-      <c r="G20" t="s">
-        <v>97</v>
+      <c r="G20">
+        <v>23</v>
       </c>
       <c r="H20" t="s">
         <v>128</v>
       </c>
       <c r="I20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J20">
         <v>25</v>
       </c>
-      <c r="K20" t="s">
-        <v>167</v>
+      <c r="K20">
+        <v>20</v>
       </c>
       <c r="L20" t="s">
         <v>188</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>25</v>
       </c>
-      <c r="O20">
-        <v>-1</v>
+      <c r="O20" t="s">
+        <v>85</v>
       </c>
       <c r="P20" t="s">
         <v>239</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R20">
         <v>25</v>
       </c>
       <c r="S20" t="s">
-        <v>267</v>
+        <v>85</v>
       </c>
       <c r="T20" t="s">
         <v>286</v>
       </c>
-      <c r="U20" t="s">
-        <v>86</v>
-      </c>
-      <c r="V20" t="s">
-        <v>86</v>
+      <c r="U20">
+        <v>7</v>
+      </c>
+      <c r="V20">
+        <v>10</v>
       </c>
       <c r="W20" t="s">
         <v>86</v>
       </c>
       <c r="X20">
+        <v>64</v>
+      </c>
+      <c r="Y20">
+        <v>106</v>
+      </c>
+      <c r="Z20">
         <v>75</v>
       </c>
-      <c r="Y20">
-        <v>100</v>
-      </c>
-      <c r="Z20">
-        <v>80</v>
-      </c>
       <c r="AA20">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AB20">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -3083,22 +3080,22 @@
         <v>47</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <v>23</v>
       </c>
-      <c r="G21">
-        <v>23</v>
+      <c r="G21" t="s">
+        <v>85</v>
       </c>
       <c r="H21" t="s">
         <v>129</v>
@@ -3122,46 +3119,46 @@
         <v>25</v>
       </c>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P21" t="s">
         <v>240</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R21">
         <v>25</v>
       </c>
-      <c r="S21" t="s">
-        <v>86</v>
+      <c r="S21">
+        <v>9</v>
       </c>
       <c r="T21" t="s">
         <v>287</v>
       </c>
-      <c r="U21">
-        <v>7</v>
-      </c>
-      <c r="V21">
-        <v>10</v>
+      <c r="U21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" t="s">
+        <v>85</v>
       </c>
       <c r="W21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X21">
-        <v>64</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="Z21">
-        <v>75</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AB21">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -3169,7 +3166,7 @@
         <v>48</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -3178,40 +3175,40 @@
         <v>86</v>
       </c>
       <c r="E22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <v>23</v>
       </c>
-      <c r="G22" t="s">
-        <v>86</v>
+      <c r="G22">
+        <v>23</v>
       </c>
       <c r="H22" t="s">
         <v>130</v>
       </c>
       <c r="I22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22">
         <v>25</v>
       </c>
-      <c r="K22">
-        <v>20</v>
+      <c r="K22" t="s">
+        <v>85</v>
       </c>
       <c r="L22" t="s">
         <v>190</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>25</v>
       </c>
-      <c r="O22" t="s">
-        <v>86</v>
+      <c r="O22">
+        <v>-1</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>24</v>
@@ -3220,34 +3217,34 @@
         <v>25</v>
       </c>
       <c r="S22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T22" t="s">
         <v>288</v>
       </c>
-      <c r="U22" t="s">
-        <v>86</v>
-      </c>
-      <c r="V22" t="s">
-        <v>86</v>
+      <c r="U22">
+        <v>8</v>
+      </c>
+      <c r="V22">
+        <v>10</v>
       </c>
       <c r="W22" t="s">
         <v>86</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="Y22">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="AA22">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -3255,34 +3252,34 @@
         <v>49</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23">
         <v>23</v>
       </c>
-      <c r="G23">
-        <v>23</v>
+      <c r="G23" t="s">
+        <v>97</v>
       </c>
       <c r="H23" t="s">
         <v>131</v>
       </c>
       <c r="I23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23">
         <v>25</v>
       </c>
-      <c r="K23" t="s">
-        <v>86</v>
+      <c r="K23">
+        <v>20</v>
       </c>
       <c r="L23" t="s">
         <v>191</v>
@@ -3297,43 +3294,43 @@
         <v>-1</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R23">
         <v>25</v>
       </c>
-      <c r="S23">
-        <v>11</v>
+      <c r="S23" t="s">
+        <v>267</v>
       </c>
       <c r="T23" t="s">
         <v>289</v>
       </c>
       <c r="U23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V23">
         <v>10</v>
       </c>
       <c r="W23" t="s">
+        <v>86</v>
+      </c>
+      <c r="X23">
+        <v>64</v>
+      </c>
+      <c r="Y23">
+        <v>118</v>
+      </c>
+      <c r="Z23">
         <v>87</v>
       </c>
-      <c r="X23">
-        <v>52</v>
-      </c>
-      <c r="Y23">
-        <v>100</v>
-      </c>
-      <c r="Z23">
-        <v>91</v>
-      </c>
       <c r="AA23">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="AB23">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3341,85 +3338,85 @@
         <v>50</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24" t="s">
-        <v>98</v>
+      <c r="G24">
+        <v>18</v>
       </c>
       <c r="H24" t="s">
         <v>132</v>
       </c>
       <c r="I24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24">
         <v>25</v>
       </c>
-      <c r="K24">
-        <v>20</v>
+      <c r="K24" t="s">
+        <v>85</v>
       </c>
       <c r="L24" t="s">
         <v>192</v>
       </c>
       <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>25</v>
+      </c>
+      <c r="O24" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q24">
         <v>24</v>
       </c>
-      <c r="N24">
-        <v>25</v>
-      </c>
-      <c r="O24">
-        <v>-1</v>
-      </c>
-      <c r="P24" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q24">
-        <v>23</v>
-      </c>
       <c r="R24">
         <v>25</v>
       </c>
-      <c r="S24" t="s">
-        <v>268</v>
+      <c r="S24">
+        <v>11</v>
       </c>
       <c r="T24" t="s">
         <v>290</v>
       </c>
-      <c r="U24">
-        <v>5</v>
-      </c>
-      <c r="V24">
-        <v>10</v>
+      <c r="U24" t="s">
+        <v>85</v>
+      </c>
+      <c r="V24" t="s">
+        <v>85</v>
       </c>
       <c r="W24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X24">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Y24">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="Z24">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA24">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB24">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -3427,49 +3424,49 @@
         <v>51</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <v>23</v>
       </c>
-      <c r="G25">
-        <v>18</v>
+      <c r="G25" t="s">
+        <v>98</v>
       </c>
       <c r="H25" t="s">
         <v>133</v>
       </c>
       <c r="I25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25">
         <v>25</v>
       </c>
-      <c r="K25" t="s">
-        <v>86</v>
+      <c r="K25">
+        <v>20</v>
       </c>
       <c r="L25" t="s">
         <v>193</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>25</v>
       </c>
-      <c r="O25" t="s">
-        <v>86</v>
+      <c r="O25">
+        <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>24</v>
@@ -3478,34 +3475,34 @@
         <v>25</v>
       </c>
       <c r="S25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T25" t="s">
         <v>291</v>
       </c>
       <c r="U25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X25">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="Y25">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="AA25">
-        <v>143</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3513,22 +3510,22 @@
         <v>52</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26">
         <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
         <v>134</v>
@@ -3546,16 +3543,16 @@
         <v>194</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>25</v>
       </c>
-      <c r="O26">
-        <v>1</v>
+      <c r="O26" t="s">
+        <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="Q26">
         <v>24</v>
@@ -3570,28 +3567,28 @@
         <v>292</v>
       </c>
       <c r="U26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X26">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>128</v>
       </c>
       <c r="Z26">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>148</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -3599,7 +3596,7 @@
         <v>53</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -3608,13 +3605,13 @@
         <v>86</v>
       </c>
       <c r="E27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H27" t="s">
         <v>135</v>
@@ -3638,7 +3635,7 @@
         <v>25</v>
       </c>
       <c r="O27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P27" t="s">
         <v>243</v>
@@ -3650,34 +3647,34 @@
         <v>25</v>
       </c>
       <c r="S27">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T27" t="s">
         <v>293</v>
       </c>
-      <c r="U27" t="s">
-        <v>86</v>
-      </c>
-      <c r="V27" t="s">
-        <v>86</v>
+      <c r="U27">
+        <v>9</v>
+      </c>
+      <c r="V27">
+        <v>10</v>
       </c>
       <c r="W27" t="s">
         <v>86</v>
       </c>
       <c r="X27">
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Z27">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>148</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3685,85 +3682,85 @@
         <v>54</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28">
-        <v>21</v>
-      </c>
-      <c r="F28">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>136</v>
-      </c>
-      <c r="I28">
-        <v>24</v>
-      </c>
-      <c r="J28">
-        <v>25</v>
-      </c>
-      <c r="K28">
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="I28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" t="s">
+        <v>85</v>
       </c>
       <c r="L28" t="s">
-        <v>196</v>
-      </c>
-      <c r="M28">
-        <v>25</v>
-      </c>
-      <c r="N28">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="M28" t="s">
+        <v>85</v>
+      </c>
+      <c r="N28" t="s">
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P28" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q28">
-        <v>24</v>
-      </c>
-      <c r="R28">
-        <v>25</v>
-      </c>
-      <c r="S28">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>85</v>
+      </c>
+      <c r="R28" t="s">
+        <v>85</v>
+      </c>
+      <c r="S28" t="s">
+        <v>85</v>
       </c>
       <c r="T28" t="s">
-        <v>294</v>
-      </c>
-      <c r="U28">
-        <v>9</v>
-      </c>
-      <c r="V28">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="U28" t="s">
+        <v>85</v>
+      </c>
+      <c r="V28" t="s">
+        <v>85</v>
       </c>
       <c r="W28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>54</v>
       </c>
       <c r="Y28">
         <v>116</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>130</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3771,85 +3768,85 @@
         <v>55</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="E29">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" t="s">
-        <v>86</v>
+        <v>136</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L29" t="s">
-        <v>86</v>
-      </c>
-      <c r="M29" t="s">
-        <v>86</v>
-      </c>
-      <c r="N29" t="s">
-        <v>86</v>
+        <v>196</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>25</v>
       </c>
       <c r="O29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>86</v>
-      </c>
-      <c r="R29" t="s">
-        <v>86</v>
+        <v>244</v>
+      </c>
+      <c r="Q29">
+        <v>25</v>
+      </c>
+      <c r="R29">
+        <v>25</v>
       </c>
       <c r="S29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T29" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="U29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X29">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y29">
-        <v>116</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AA29">
-        <v>130</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3857,22 +3854,22 @@
         <v>56</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30">
         <v>23</v>
       </c>
-      <c r="G30" t="s">
-        <v>86</v>
+      <c r="G30">
+        <v>12</v>
       </c>
       <c r="H30" t="s">
         <v>137</v>
@@ -3884,58 +3881,58 @@
         <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L30" t="s">
         <v>197</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>25</v>
       </c>
-      <c r="O30" t="s">
-        <v>86</v>
+      <c r="O30">
+        <v>-1</v>
       </c>
       <c r="P30" t="s">
         <v>245</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R30">
         <v>25</v>
       </c>
-      <c r="S30" t="s">
-        <v>86</v>
+      <c r="S30">
+        <v>9</v>
       </c>
       <c r="T30" t="s">
-        <v>216</v>
-      </c>
-      <c r="U30" t="s">
-        <v>86</v>
-      </c>
-      <c r="V30" t="s">
-        <v>86</v>
+        <v>294</v>
+      </c>
+      <c r="U30">
+        <v>10</v>
+      </c>
+      <c r="V30">
+        <v>10</v>
       </c>
       <c r="W30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X30">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>123</v>
       </c>
       <c r="Z30">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>146</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3943,49 +3940,49 @@
         <v>57</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F31">
         <v>23</v>
       </c>
-      <c r="G31">
-        <v>12</v>
+      <c r="G31" t="s">
+        <v>85</v>
       </c>
       <c r="H31" t="s">
         <v>138</v>
       </c>
       <c r="I31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31">
         <v>25</v>
       </c>
-      <c r="K31" t="s">
-        <v>86</v>
+      <c r="K31">
+        <v>-19</v>
       </c>
       <c r="L31" t="s">
         <v>198</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>25</v>
       </c>
-      <c r="O31">
-        <v>-1</v>
+      <c r="O31" t="s">
+        <v>85</v>
       </c>
       <c r="P31" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="Q31">
         <v>24</v>
@@ -3999,29 +3996,29 @@
       <c r="T31" t="s">
         <v>295</v>
       </c>
-      <c r="U31">
-        <v>10</v>
-      </c>
-      <c r="V31">
-        <v>10</v>
+      <c r="U31" t="s">
+        <v>85</v>
+      </c>
+      <c r="V31" t="s">
+        <v>85</v>
       </c>
       <c r="W31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X31">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Y31">
-        <v>123</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AA31">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB31">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -4029,49 +4026,49 @@
         <v>58</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E32">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F32">
         <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
         <v>139</v>
       </c>
       <c r="I32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J32">
         <v>25</v>
       </c>
-      <c r="K32">
-        <v>-19</v>
+      <c r="K32" t="s">
+        <v>85</v>
       </c>
       <c r="L32" t="s">
         <v>199</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>25</v>
       </c>
-      <c r="O32" t="s">
-        <v>86</v>
+      <c r="O32">
+        <v>-1</v>
       </c>
       <c r="P32" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>24</v>
@@ -4080,34 +4077,34 @@
         <v>25</v>
       </c>
       <c r="S32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T32" t="s">
         <v>296</v>
       </c>
       <c r="U32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X32">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA32">
-        <v>144</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -4115,16 +4112,16 @@
         <v>59</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F33">
         <v>23</v>
@@ -4136,58 +4133,58 @@
         <v>140</v>
       </c>
       <c r="I33">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J33">
         <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="L33" t="s">
         <v>200</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>25</v>
       </c>
-      <c r="O33">
-        <v>-1</v>
+      <c r="O33" t="s">
+        <v>221</v>
       </c>
       <c r="P33" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R33">
         <v>25</v>
       </c>
-      <c r="S33">
-        <v>7</v>
+      <c r="S33" t="s">
+        <v>268</v>
       </c>
       <c r="T33" t="s">
         <v>297</v>
       </c>
       <c r="U33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X33">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -4200,74 +4197,74 @@
       <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34">
-        <v>13</v>
-      </c>
-      <c r="F34">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>141</v>
-      </c>
-      <c r="I34">
-        <v>8</v>
-      </c>
-      <c r="J34">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="I34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
       </c>
       <c r="K34" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="L34" t="s">
-        <v>201</v>
-      </c>
-      <c r="M34">
-        <v>21</v>
-      </c>
-      <c r="N34">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="M34" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" t="s">
+        <v>85</v>
       </c>
       <c r="O34" t="s">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q34">
-        <v>22</v>
-      </c>
-      <c r="R34">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>85</v>
+      </c>
+      <c r="R34" t="s">
+        <v>85</v>
       </c>
       <c r="S34" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="T34" t="s">
-        <v>298</v>
+        <v>85</v>
       </c>
       <c r="U34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X34">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -4286,86 +4283,86 @@
       <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
       </c>
       <c r="D35" t="s">
         <v>86</v>
       </c>
-      <c r="E35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" t="s">
-        <v>86</v>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" t="s">
-        <v>86</v>
-      </c>
-      <c r="J35" t="s">
-        <v>86</v>
+        <v>141</v>
+      </c>
+      <c r="I35">
+        <v>25</v>
+      </c>
+      <c r="J35">
+        <v>25</v>
       </c>
       <c r="K35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L35" t="s">
-        <v>86</v>
-      </c>
-      <c r="M35" t="s">
-        <v>86</v>
-      </c>
-      <c r="N35" t="s">
-        <v>86</v>
+        <v>201</v>
+      </c>
+      <c r="M35">
+        <v>25</v>
+      </c>
+      <c r="N35">
+        <v>25</v>
       </c>
       <c r="O35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>86</v>
-      </c>
-      <c r="R35" t="s">
-        <v>86</v>
-      </c>
-      <c r="S35" t="s">
-        <v>86</v>
+        <v>247</v>
+      </c>
+      <c r="Q35">
+        <v>24</v>
+      </c>
+      <c r="R35">
+        <v>25</v>
+      </c>
+      <c r="S35">
+        <v>-10</v>
       </c>
       <c r="T35" t="s">
-        <v>86</v>
-      </c>
-      <c r="U35" t="s">
-        <v>86</v>
-      </c>
-      <c r="V35" t="s">
-        <v>86</v>
+        <v>298</v>
+      </c>
+      <c r="U35">
+        <v>8</v>
+      </c>
+      <c r="V35">
+        <v>10</v>
       </c>
       <c r="W35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X35">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>111</v>
       </c>
       <c r="Z35">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>128</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -4373,13 +4370,13 @@
         <v>62</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -4400,7 +4397,7 @@
         <v>25</v>
       </c>
       <c r="K36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L36" t="s">
         <v>202</v>
@@ -4412,25 +4409,25 @@
         <v>25</v>
       </c>
       <c r="O36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R36">
         <v>25</v>
       </c>
-      <c r="S36">
-        <v>-10</v>
+      <c r="S36" t="s">
+        <v>85</v>
       </c>
       <c r="T36" t="s">
         <v>299</v>
       </c>
       <c r="U36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V36">
         <v>10</v>
@@ -4439,19 +4436,19 @@
         <v>86</v>
       </c>
       <c r="X36">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Y36">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="Z36">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AA36">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="AB36">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -4459,34 +4456,34 @@
         <v>63</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F37">
         <v>23</v>
       </c>
-      <c r="G37" t="s">
-        <v>104</v>
+      <c r="G37">
+        <v>23</v>
       </c>
       <c r="H37" t="s">
         <v>143</v>
       </c>
       <c r="I37">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J37">
         <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="L37" t="s">
         <v>203</v>
@@ -4498,10 +4495,10 @@
         <v>25</v>
       </c>
       <c r="O37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="Q37">
         <v>25</v>
@@ -4510,34 +4507,34 @@
         <v>25</v>
       </c>
       <c r="S37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T37" t="s">
         <v>300</v>
       </c>
       <c r="U37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V37">
         <v>10</v>
       </c>
       <c r="W37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X37">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Y37">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Z37">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AA37">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="AB37">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -4545,34 +4542,34 @@
         <v>64</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38">
         <v>23</v>
       </c>
-      <c r="G38">
-        <v>23</v>
+      <c r="G38" t="s">
+        <v>90</v>
       </c>
       <c r="H38" t="s">
         <v>144</v>
       </c>
       <c r="I38">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J38">
         <v>25</v>
       </c>
-      <c r="K38" t="s">
-        <v>169</v>
+      <c r="K38">
+        <v>20</v>
       </c>
       <c r="L38" t="s">
         <v>204</v>
@@ -4584,7 +4581,7 @@
         <v>25</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P38" t="s">
         <v>249</v>
@@ -4596,34 +4593,34 @@
         <v>25</v>
       </c>
       <c r="S38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T38" t="s">
         <v>301</v>
       </c>
       <c r="U38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V38">
         <v>10</v>
       </c>
       <c r="W38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X38">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="Y38">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Z38">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AA38">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AB38">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4631,34 +4628,34 @@
         <v>65</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F39">
         <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s">
         <v>145</v>
       </c>
       <c r="I39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J39">
         <v>25</v>
       </c>
-      <c r="K39">
-        <v>20</v>
+      <c r="K39" t="s">
+        <v>85</v>
       </c>
       <c r="L39" t="s">
         <v>205</v>
@@ -4670,19 +4667,19 @@
         <v>25</v>
       </c>
       <c r="O39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P39" t="s">
         <v>250</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R39">
         <v>25</v>
       </c>
-      <c r="S39" t="s">
-        <v>86</v>
+      <c r="S39">
+        <v>9</v>
       </c>
       <c r="T39" t="s">
         <v>302</v>
@@ -4694,22 +4691,22 @@
         <v>10</v>
       </c>
       <c r="W39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X39">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="Y39">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="Z39">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AA39">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB39">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4717,13 +4714,13 @@
         <v>66</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E40">
         <v>23</v>
@@ -4732,19 +4729,19 @@
         <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s">
         <v>146</v>
       </c>
       <c r="I40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J40">
         <v>25</v>
       </c>
-      <c r="K40" t="s">
-        <v>86</v>
+      <c r="K40">
+        <v>24</v>
       </c>
       <c r="L40" t="s">
         <v>206</v>
@@ -4756,46 +4753,46 @@
         <v>25</v>
       </c>
       <c r="O40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P40" t="s">
         <v>251</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R40">
         <v>25</v>
       </c>
-      <c r="S40">
-        <v>9</v>
+      <c r="S40" t="s">
+        <v>85</v>
       </c>
       <c r="T40" t="s">
         <v>303</v>
       </c>
-      <c r="U40">
-        <v>10</v>
-      </c>
-      <c r="V40">
-        <v>10</v>
+      <c r="U40" t="s">
+        <v>85</v>
+      </c>
+      <c r="V40" t="s">
+        <v>85</v>
       </c>
       <c r="W40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X40">
-        <v>65</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>114</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>82</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>122</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -4809,28 +4806,28 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41">
         <v>23</v>
       </c>
-      <c r="G41" t="s">
-        <v>86</v>
+      <c r="G41">
+        <v>20</v>
       </c>
       <c r="H41" t="s">
         <v>147</v>
       </c>
       <c r="I41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J41">
         <v>25</v>
       </c>
-      <c r="K41">
-        <v>24</v>
+      <c r="K41" t="s">
+        <v>169</v>
       </c>
       <c r="L41" t="s">
         <v>207</v>
@@ -4842,40 +4839,40 @@
         <v>25</v>
       </c>
       <c r="O41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P41" t="s">
         <v>252</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R41">
         <v>25</v>
       </c>
-      <c r="S41" t="s">
-        <v>86</v>
+      <c r="S41">
+        <v>11</v>
       </c>
       <c r="T41" t="s">
         <v>304</v>
       </c>
       <c r="U41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>58</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>84</v>
       </c>
       <c r="AA41">
         <v>-1</v>
@@ -4889,34 +4886,34 @@
         <v>68</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F42">
         <v>23</v>
       </c>
-      <c r="G42">
-        <v>20</v>
+      <c r="G42" t="s">
+        <v>104</v>
       </c>
       <c r="H42" t="s">
         <v>148</v>
       </c>
       <c r="I42">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J42">
         <v>25</v>
       </c>
-      <c r="K42" t="s">
-        <v>170</v>
+      <c r="K42">
+        <v>20</v>
       </c>
       <c r="L42" t="s">
         <v>208</v>
@@ -4928,40 +4925,40 @@
         <v>25</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="Q42">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R42">
         <v>25</v>
       </c>
-      <c r="S42">
-        <v>11</v>
+      <c r="S42" t="s">
+        <v>85</v>
       </c>
       <c r="T42" t="s">
         <v>305</v>
       </c>
       <c r="U42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X42">
-        <v>58</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>84</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>-1</v>
@@ -4975,13 +4972,13 @@
         <v>69</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43">
         <v>19</v>
@@ -4996,64 +4993,64 @@
         <v>149</v>
       </c>
       <c r="I43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J43">
         <v>25</v>
       </c>
-      <c r="K43">
-        <v>20</v>
+      <c r="K43" t="s">
+        <v>170</v>
       </c>
       <c r="L43" t="s">
         <v>209</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>25</v>
       </c>
-      <c r="O43" t="s">
-        <v>86</v>
+      <c r="O43">
+        <v>-1</v>
       </c>
       <c r="P43" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="Q43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R43">
         <v>25</v>
       </c>
       <c r="S43" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="T43" t="s">
         <v>306</v>
       </c>
       <c r="U43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>66</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>96</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>145</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -5061,7 +5058,7 @@
         <v>70</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -5070,76 +5067,76 @@
         <v>86</v>
       </c>
       <c r="E44">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F44">
         <v>23</v>
       </c>
-      <c r="G44" t="s">
-        <v>106</v>
+      <c r="G44">
+        <v>10</v>
       </c>
       <c r="H44" t="s">
         <v>150</v>
       </c>
       <c r="I44">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J44">
         <v>25</v>
       </c>
       <c r="K44" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="L44" t="s">
         <v>210</v>
       </c>
       <c r="M44">
+        <v>25</v>
+      </c>
+      <c r="N44">
+        <v>25</v>
+      </c>
+      <c r="O44" t="s">
+        <v>85</v>
+      </c>
+      <c r="P44" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q44">
         <v>24</v>
       </c>
-      <c r="N44">
-        <v>25</v>
-      </c>
-      <c r="O44">
-        <v>-1</v>
-      </c>
-      <c r="P44" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q44">
-        <v>22</v>
-      </c>
       <c r="R44">
         <v>25</v>
       </c>
-      <c r="S44" t="s">
-        <v>270</v>
+      <c r="S44">
+        <v>9</v>
       </c>
       <c r="T44" t="s">
         <v>307</v>
       </c>
-      <c r="U44" t="s">
-        <v>86</v>
-      </c>
-      <c r="V44" t="s">
-        <v>86</v>
+      <c r="U44">
+        <v>8</v>
+      </c>
+      <c r="V44">
+        <v>10</v>
       </c>
       <c r="W44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X44">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Y44">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="Z44">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AA44">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AB44">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -5153,28 +5150,28 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45">
         <v>23</v>
       </c>
-      <c r="G45">
-        <v>10</v>
+      <c r="G45" t="s">
+        <v>106</v>
       </c>
       <c r="H45" t="s">
         <v>151</v>
       </c>
       <c r="I45">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J45">
         <v>25</v>
       </c>
-      <c r="K45" t="s">
-        <v>86</v>
+      <c r="K45">
+        <v>20</v>
       </c>
       <c r="L45" t="s">
         <v>211</v>
@@ -5186,46 +5183,46 @@
         <v>25</v>
       </c>
       <c r="O45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q45">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R45">
         <v>25</v>
       </c>
-      <c r="S45">
-        <v>9</v>
+      <c r="S45" t="s">
+        <v>270</v>
       </c>
       <c r="T45" t="s">
         <v>308</v>
       </c>
-      <c r="U45">
-        <v>8</v>
-      </c>
-      <c r="V45">
-        <v>10</v>
+      <c r="U45" t="s">
+        <v>85</v>
+      </c>
+      <c r="V45" t="s">
+        <v>85</v>
       </c>
       <c r="W45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X45">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="Y45">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Z45">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AA45">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AB45">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -5233,85 +5230,85 @@
         <v>72</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46">
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46">
-        <v>21</v>
-      </c>
-      <c r="F46">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s">
+        <v>85</v>
       </c>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
-      </c>
-      <c r="I46">
-        <v>24</v>
-      </c>
-      <c r="J46">
-        <v>25</v>
-      </c>
-      <c r="K46">
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="I46" t="s">
+        <v>85</v>
+      </c>
+      <c r="J46" t="s">
+        <v>85</v>
+      </c>
+      <c r="K46" t="s">
+        <v>85</v>
       </c>
       <c r="L46" t="s">
-        <v>212</v>
-      </c>
-      <c r="M46">
-        <v>25</v>
-      </c>
-      <c r="N46">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="M46" t="s">
+        <v>85</v>
+      </c>
+      <c r="N46" t="s">
+        <v>85</v>
       </c>
       <c r="O46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q46">
-        <v>23</v>
-      </c>
-      <c r="R46">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>85</v>
+      </c>
+      <c r="R46" t="s">
+        <v>85</v>
       </c>
       <c r="S46" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="T46" t="s">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="U46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X46">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y46">
-        <v>123</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AA46">
-        <v>142</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>67</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -5319,7 +5316,7 @@
         <v>73</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>10</v>
@@ -5327,71 +5324,71 @@
       <c r="D47" t="s">
         <v>86</v>
       </c>
-      <c r="E47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" t="s">
-        <v>86</v>
+      <c r="E47">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <v>23</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>86</v>
-      </c>
-      <c r="I47" t="s">
-        <v>86</v>
-      </c>
-      <c r="J47" t="s">
-        <v>86</v>
+        <v>152</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
       </c>
       <c r="K47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L47" t="s">
-        <v>86</v>
-      </c>
-      <c r="M47" t="s">
-        <v>86</v>
-      </c>
-      <c r="N47" t="s">
-        <v>86</v>
+        <v>212</v>
+      </c>
+      <c r="M47">
+        <v>25</v>
+      </c>
+      <c r="N47">
+        <v>25</v>
       </c>
       <c r="O47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>86</v>
-      </c>
-      <c r="R47" t="s">
-        <v>86</v>
+        <v>253</v>
+      </c>
+      <c r="Q47">
+        <v>23</v>
+      </c>
+      <c r="R47">
+        <v>25</v>
       </c>
       <c r="S47" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="T47" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="U47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W47" t="s">
         <v>86</v>
       </c>
       <c r="X47">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -5405,22 +5402,22 @@
         <v>74</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F48">
         <v>23</v>
       </c>
-      <c r="G48">
-        <v>10</v>
+      <c r="G48" t="s">
+        <v>107</v>
       </c>
       <c r="H48" t="s">
         <v>153</v>
@@ -5432,7 +5429,7 @@
         <v>25</v>
       </c>
       <c r="K48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L48" t="s">
         <v>213</v>
@@ -5444,46 +5441,46 @@
         <v>25</v>
       </c>
       <c r="O48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P48" t="s">
         <v>254</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R48">
         <v>25</v>
       </c>
       <c r="S48" t="s">
-        <v>272</v>
+        <v>85</v>
       </c>
       <c r="T48" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="U48" t="s">
+        <v>85</v>
+      </c>
+      <c r="V48" t="s">
+        <v>85</v>
+      </c>
+      <c r="W48" t="s">
+        <v>85</v>
+      </c>
+      <c r="X48">
+        <v>37</v>
+      </c>
+      <c r="Y48">
+        <v>118</v>
+      </c>
+      <c r="Z48">
         <v>86</v>
       </c>
-      <c r="V48" t="s">
-        <v>86</v>
-      </c>
-      <c r="W48" t="s">
-        <v>87</v>
-      </c>
-      <c r="X48">
-        <v>40</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>80</v>
-      </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>144</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -5491,7 +5488,7 @@
         <v>75</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>10</v>
@@ -5506,19 +5503,19 @@
         <v>23</v>
       </c>
       <c r="G49" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H49" t="s">
         <v>154</v>
       </c>
       <c r="I49">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J49">
         <v>25</v>
       </c>
       <c r="K49" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="L49" t="s">
         <v>214</v>
@@ -5530,46 +5527,46 @@
         <v>25</v>
       </c>
       <c r="O49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P49" t="s">
         <v>255</v>
       </c>
       <c r="Q49">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R49">
         <v>25</v>
       </c>
-      <c r="S49" t="s">
-        <v>86</v>
+      <c r="S49">
+        <v>9</v>
       </c>
       <c r="T49" t="s">
-        <v>258</v>
-      </c>
-      <c r="U49" t="s">
-        <v>86</v>
-      </c>
-      <c r="V49" t="s">
-        <v>86</v>
+        <v>310</v>
+      </c>
+      <c r="U49">
+        <v>9</v>
+      </c>
+      <c r="V49">
+        <v>10</v>
       </c>
       <c r="W49" t="s">
         <v>86</v>
       </c>
       <c r="X49">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Y49">
         <v>118</v>
       </c>
       <c r="Z49">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="AA49">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="AB49">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -5577,156 +5574,156 @@
         <v>76</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50">
-        <v>21</v>
-      </c>
-      <c r="F50">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" t="s">
+        <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s">
-        <v>155</v>
-      </c>
-      <c r="I50">
-        <v>20</v>
-      </c>
-      <c r="J50">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="I50" t="s">
+        <v>85</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
       </c>
       <c r="K50" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="L50" t="s">
-        <v>215</v>
-      </c>
-      <c r="M50">
-        <v>25</v>
-      </c>
-      <c r="N50">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="M50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N50" t="s">
+        <v>85</v>
       </c>
       <c r="O50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q50">
-        <v>24</v>
-      </c>
-      <c r="R50">
-        <v>25</v>
-      </c>
-      <c r="S50">
-        <v>9</v>
+        <v>85</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>85</v>
+      </c>
+      <c r="R50" t="s">
+        <v>85</v>
+      </c>
+      <c r="S50" t="s">
+        <v>85</v>
       </c>
       <c r="T50" t="s">
-        <v>311</v>
-      </c>
-      <c r="U50">
-        <v>9</v>
-      </c>
-      <c r="V50">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="U50" t="s">
+        <v>85</v>
+      </c>
+      <c r="V50" t="s">
+        <v>85</v>
       </c>
       <c r="W50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X50">
-        <v>58</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>118</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>65</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B51">
-        <v>9</v>
-      </c>
-      <c r="C51">
-        <v>10</v>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5735,7 +5732,7 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="AA51">
         <v>-1</v>
@@ -5748,86 +5745,86 @@
       <c r="A52" t="s">
         <v>78</v>
       </c>
-      <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" t="s">
-        <v>86</v>
-      </c>
-      <c r="F52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="E52">
+        <v>22</v>
+      </c>
+      <c r="F52">
+        <v>23</v>
+      </c>
+      <c r="G52">
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K52" t="s">
-        <v>86</v>
+        <v>155</v>
+      </c>
+      <c r="I52">
+        <v>24</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <v>23</v>
       </c>
       <c r="L52" t="s">
-        <v>86</v>
-      </c>
-      <c r="M52" t="s">
-        <v>86</v>
-      </c>
-      <c r="N52" t="s">
-        <v>86</v>
+        <v>215</v>
+      </c>
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
+        <v>25</v>
       </c>
       <c r="O52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>86</v>
-      </c>
-      <c r="R52" t="s">
-        <v>86</v>
-      </c>
-      <c r="S52" t="s">
-        <v>86</v>
+        <v>256</v>
+      </c>
+      <c r="Q52">
+        <v>24</v>
+      </c>
+      <c r="R52">
+        <v>25</v>
+      </c>
+      <c r="S52">
+        <v>9</v>
       </c>
       <c r="T52" t="s">
-        <v>86</v>
-      </c>
-      <c r="U52" t="s">
-        <v>86</v>
-      </c>
-      <c r="V52" t="s">
-        <v>86</v>
+        <v>311</v>
+      </c>
+      <c r="U52">
+        <v>8</v>
+      </c>
+      <c r="V52">
+        <v>10</v>
       </c>
       <c r="W52" t="s">
         <v>86</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>66</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>132</v>
       </c>
       <c r="Z52">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>149</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5835,7 +5832,7 @@
         <v>79</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -5844,13 +5841,13 @@
         <v>86</v>
       </c>
       <c r="E53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F53">
         <v>23</v>
       </c>
-      <c r="G53">
-        <v>18</v>
+      <c r="G53" t="s">
+        <v>108</v>
       </c>
       <c r="H53" t="s">
         <v>156</v>
@@ -5862,19 +5859,19 @@
         <v>25</v>
       </c>
       <c r="K53">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L53" t="s">
         <v>216</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>25</v>
       </c>
       <c r="O53" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="P53" t="s">
         <v>257</v>
@@ -5892,28 +5889,28 @@
         <v>312</v>
       </c>
       <c r="U53">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V53">
         <v>10</v>
       </c>
       <c r="W53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X53">
+        <v>53</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
+        <v>80</v>
+      </c>
+      <c r="AA53">
+        <v>141</v>
+      </c>
+      <c r="AB53">
         <v>66</v>
-      </c>
-      <c r="Y53">
-        <v>132</v>
-      </c>
-      <c r="Z53">
-        <v>86</v>
-      </c>
-      <c r="AA53">
-        <v>149</v>
-      </c>
-      <c r="AB53">
-        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5921,85 +5918,85 @@
         <v>80</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54">
-        <v>21</v>
-      </c>
-      <c r="F54">
-        <v>23</v>
+        <v>85</v>
+      </c>
+      <c r="E54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" t="s">
+        <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s">
-        <v>157</v>
-      </c>
-      <c r="I54">
-        <v>24</v>
-      </c>
-      <c r="J54">
-        <v>25</v>
-      </c>
-      <c r="K54">
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+      <c r="K54" t="s">
+        <v>85</v>
       </c>
       <c r="L54" t="s">
-        <v>217</v>
-      </c>
-      <c r="M54">
-        <v>22</v>
-      </c>
-      <c r="N54">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="M54" t="s">
+        <v>85</v>
+      </c>
+      <c r="N54" t="s">
+        <v>85</v>
       </c>
       <c r="O54" t="s">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q54">
-        <v>24</v>
-      </c>
-      <c r="R54">
-        <v>25</v>
-      </c>
-      <c r="S54">
-        <v>9</v>
+        <v>85</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>85</v>
+      </c>
+      <c r="R54" t="s">
+        <v>85</v>
+      </c>
+      <c r="S54" t="s">
+        <v>85</v>
       </c>
       <c r="T54" t="s">
-        <v>313</v>
-      </c>
-      <c r="U54">
-        <v>10</v>
-      </c>
-      <c r="V54">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="U54" t="s">
+        <v>85</v>
+      </c>
+      <c r="V54" t="s">
+        <v>85</v>
       </c>
       <c r="W54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X54">
         <v>53</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>86</v>
       </c>
       <c r="Z54">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="AA54">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="AB54">
-        <v>66</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -6007,85 +6004,85 @@
         <v>81</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+      <c r="F55">
+        <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="H55" t="s">
-        <v>86</v>
-      </c>
-      <c r="I55" t="s">
-        <v>86</v>
-      </c>
-      <c r="J55" t="s">
-        <v>86</v>
-      </c>
-      <c r="K55" t="s">
-        <v>86</v>
+        <v>157</v>
+      </c>
+      <c r="I55">
+        <v>24</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>7</v>
       </c>
       <c r="L55" t="s">
-        <v>86</v>
-      </c>
-      <c r="M55" t="s">
-        <v>86</v>
-      </c>
-      <c r="N55" t="s">
-        <v>86</v>
+        <v>202</v>
+      </c>
+      <c r="M55">
+        <v>23</v>
+      </c>
+      <c r="N55">
+        <v>25</v>
       </c>
       <c r="O55" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="P55" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>86</v>
-      </c>
-      <c r="R55" t="s">
-        <v>86</v>
+        <v>258</v>
+      </c>
+      <c r="Q55">
+        <v>23</v>
+      </c>
+      <c r="R55">
+        <v>25</v>
       </c>
       <c r="S55" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="T55" t="s">
-        <v>86</v>
+        <v>313</v>
       </c>
       <c r="U55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X55">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y55">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="Z55">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="AA55">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -6093,22 +6090,22 @@
         <v>82</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F56">
         <v>23</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s">
         <v>158</v>
@@ -6120,25 +6117,25 @@
         <v>25</v>
       </c>
       <c r="K56">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L56" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>25</v>
       </c>
-      <c r="O56" t="s">
-        <v>224</v>
+      <c r="O56">
+        <v>1</v>
       </c>
       <c r="P56" t="s">
         <v>259</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R56">
         <v>25</v>
@@ -6150,28 +6147,28 @@
         <v>314</v>
       </c>
       <c r="U56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X56">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Y56">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="Z56">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA56">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AB56">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -6179,7 +6176,7 @@
         <v>83</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>10</v>
@@ -6188,25 +6185,25 @@
         <v>86</v>
       </c>
       <c r="E57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F57">
         <v>23</v>
       </c>
-      <c r="G57" t="s">
-        <v>86</v>
+      <c r="G57">
+        <v>23</v>
       </c>
       <c r="H57" t="s">
         <v>159</v>
       </c>
       <c r="I57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J57">
         <v>25</v>
       </c>
-      <c r="K57">
-        <v>16</v>
+      <c r="K57" t="s">
+        <v>85</v>
       </c>
       <c r="L57" t="s">
         <v>218</v>
@@ -6218,46 +6215,46 @@
         <v>25</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P57" t="s">
         <v>260</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R57">
         <v>25</v>
       </c>
-      <c r="S57" t="s">
-        <v>274</v>
+      <c r="S57">
+        <v>24</v>
       </c>
       <c r="T57" t="s">
-        <v>315</v>
-      </c>
-      <c r="U57" t="s">
-        <v>86</v>
-      </c>
-      <c r="V57" t="s">
-        <v>86</v>
+        <v>177</v>
+      </c>
+      <c r="U57">
+        <v>8</v>
+      </c>
+      <c r="V57">
+        <v>10</v>
       </c>
       <c r="W57" t="s">
         <v>86</v>
       </c>
       <c r="X57">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="Y57">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="Z57">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA57">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AB57">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -6265,22 +6262,22 @@
         <v>84</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E58">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F58">
         <v>23</v>
       </c>
-      <c r="G58">
-        <v>23</v>
+      <c r="G58" t="s">
+        <v>110</v>
       </c>
       <c r="H58" t="s">
         <v>160</v>
@@ -6292,19 +6289,19 @@
         <v>25</v>
       </c>
       <c r="K58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L58" t="s">
         <v>219</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>25</v>
       </c>
-      <c r="O58">
-        <v>-1</v>
+      <c r="O58" t="s">
+        <v>85</v>
       </c>
       <c r="P58" t="s">
         <v>261</v>
@@ -6316,119 +6313,33 @@
         <v>25</v>
       </c>
       <c r="S58">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="T58" t="s">
-        <v>178</v>
-      </c>
-      <c r="U58">
-        <v>8</v>
-      </c>
-      <c r="V58">
-        <v>10</v>
+        <v>315</v>
+      </c>
+      <c r="U58" t="s">
+        <v>85</v>
+      </c>
+      <c r="V58" t="s">
+        <v>85</v>
       </c>
       <c r="W58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X58">
-        <v>74</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>120</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>77</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>135</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28">
-      <c r="A59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
-      <c r="D59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59">
-        <v>20</v>
-      </c>
-      <c r="F59">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>111</v>
-      </c>
-      <c r="H59" t="s">
-        <v>161</v>
-      </c>
-      <c r="I59">
-        <v>25</v>
-      </c>
-      <c r="J59">
-        <v>25</v>
-      </c>
-      <c r="K59" t="s">
-        <v>86</v>
-      </c>
-      <c r="L59" t="s">
-        <v>220</v>
-      </c>
-      <c r="M59">
-        <v>25</v>
-      </c>
-      <c r="N59">
-        <v>25</v>
-      </c>
-      <c r="O59" t="s">
-        <v>86</v>
-      </c>
-      <c r="P59" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q59">
-        <v>24</v>
-      </c>
-      <c r="R59">
-        <v>25</v>
-      </c>
-      <c r="S59">
-        <v>11</v>
-      </c>
-      <c r="T59" t="s">
-        <v>316</v>
-      </c>
-      <c r="U59" t="s">
-        <v>86</v>
-      </c>
-      <c r="V59" t="s">
-        <v>86</v>
-      </c>
-      <c r="W59" t="s">
-        <v>86</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
         <v>-1</v>
       </c>
     </row>
